--- a/data/Flutter Data Set.xlsx
+++ b/data/Flutter Data Set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mern_project\flutter-trekify-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6508B551-C7A0-4DE0-A426-C422297F61F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED56718-AE27-46C6-AA47-655EA5B13751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2A117951-B1E1-41EA-BB3F-EF981110B72C}"/>
   </bookViews>
@@ -5580,7 +5580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF27F40-D5DC-475B-B6A0-DD5B47D12657}">
   <dimension ref="A1:N823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B627" zoomScale="194" zoomScaleNormal="272" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="272" workbookViewId="0">
       <selection activeCell="B629" sqref="B629"/>
     </sheetView>
   </sheetViews>
